--- a/survey_result.xlsx
+++ b/survey_result.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yihan/CityU/paper/ADS survey/Survey Result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D11818C-DA24-4C45-875B-AD0C8FAC4EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10C08D0-93B4-C546-9695-6956E5A84AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Responses" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Responses!$A$1:$DD$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Responses!$B$1:$BI$102</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3174" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3174" uniqueCount="483">
   <si>
     <t>Research Institutes</t>
   </si>
@@ -1141,9 +1141,6 @@
     <t>Adversarial Attacks,Inference Attacks (e.g., membership inference, attribute inference, model stealing, model inversion attacks),Sensor Attacks (e.g., jamming, spoofing)</t>
   </si>
   <si>
-    <t>What type of organization are you working for?</t>
-  </si>
-  <si>
     <t>What is your role in the organization?</t>
   </si>
   <si>
@@ -1180,9 +1177,6 @@
     <t>What testing techniques do you use on the V2X system? (check all that apply)</t>
   </si>
   <si>
-    <t>What testing methods do you use on the V2X system? (check all that apply)</t>
-  </si>
-  <si>
     <t>Do you use public or private datasets? (check all that apply)</t>
   </si>
   <si>
@@ -1319,9 +1313,6 @@
   </si>
   <si>
     <t>At system-level testing, what testing techniques do you use? (check all that apply)</t>
-  </si>
-  <si>
-    <t>At system-level testing, what testing methods do you use? (check all that apply)</t>
   </si>
   <si>
     <t>The current methods you use for system-level testing can meet the testing requirements. (Strong disagree to strong agree)</t>
@@ -1579,6 +1570,50 @@
   </si>
   <si>
     <t>Yes</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black-box (query access to the model, i.e., only know inputs and outputs)
+Grey-box (with partial information)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black-box (query access to the model, i.e., only know inputs and outputs)
+White-box (with information, e.g., data, parameter, or model structure)
+Grey-box (with partial information)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>White-box (with information, e.g., data, parameter, or model structure)Grey-box (with partial information)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>White-box (with information, e.g., data, parameter, or model structure)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>White-box (with information, e.g., data, parameter, or model structure)
+Grey-box (with partial information)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black-box (query access to the model, i.e., only know inputs and outputs)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black-box (query access to the model, i.e., only know inputs and outputs) White-box (with information, e.g., data, parameter, or model structure)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>What testing methods do you use on the V2X system? (check all that apply)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>What type of organization are you working for?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>At system-level testing, what testing methods do you use? (check all that apply)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1874,7 +1909,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2219,27 +2254,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:DI102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CU1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="DD1" sqref="DD1:DD1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="12" customWidth="1"/>
     <col min="2" max="2" width="40.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40" style="1" customWidth="1"/>
-    <col min="5" max="6" width="40" style="2" customWidth="1"/>
-    <col min="7" max="27" width="40" style="1" customWidth="1"/>
-    <col min="28" max="28" width="40" style="9" customWidth="1"/>
-    <col min="29" max="32" width="40" style="1" customWidth="1"/>
-    <col min="33" max="33" width="40" style="9" customWidth="1"/>
-    <col min="34" max="37" width="40" style="1" customWidth="1"/>
-    <col min="38" max="38" width="40" style="9" customWidth="1"/>
-    <col min="39" max="39" width="28.33203125" style="1" customWidth="1"/>
-    <col min="40" max="48" width="40" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="40" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="6" width="40" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="27" width="40" style="1" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="40" style="9" hidden="1" customWidth="1"/>
+    <col min="29" max="32" width="40" style="1" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="40" style="9" hidden="1" customWidth="1"/>
+    <col min="34" max="37" width="40" style="1" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="40" style="9" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="28.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="40" max="44" width="40" style="1" hidden="1" customWidth="1"/>
+    <col min="45" max="48" width="40" style="1" customWidth="1"/>
     <col min="49" max="49" width="40" style="9" customWidth="1"/>
     <col min="50" max="51" width="40" style="1" customWidth="1"/>
     <col min="52" max="52" width="40" style="9" customWidth="1"/>
@@ -2260,331 +2297,331 @@
   <sheetData>
     <row r="1" spans="1:113" ht="30" customHeight="1">
       <c r="A1" s="30" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B1" s="24" t="s">
+        <v>481</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>336</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="24" t="s">
         <v>337</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="E1" s="24" t="s">
         <v>338</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="F1" s="24" t="s">
         <v>339</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="G1" s="24" t="s">
         <v>340</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="24" t="s">
         <v>341</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>342</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="J1" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="K1" s="24" t="s">
         <v>344</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="L1" s="24" t="s">
         <v>345</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="M1" s="24" t="s">
         <v>346</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="N1" s="24" t="s">
         <v>347</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="O1" s="24" t="s">
+        <v>480</v>
+      </c>
+      <c r="P1" s="24" t="s">
         <v>348</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="Q1" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="R1" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="S1" s="24" t="s">
         <v>351</v>
       </c>
-      <c r="R1" s="24" t="s">
+      <c r="T1" s="24" t="s">
         <v>352</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="U1" s="24" t="s">
         <v>353</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="V1" s="24" t="s">
         <v>354</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="W1" s="24" t="s">
         <v>355</v>
       </c>
-      <c r="V1" s="24" t="s">
+      <c r="X1" s="24" t="s">
         <v>356</v>
       </c>
-      <c r="W1" s="24" t="s">
+      <c r="Y1" s="24" t="s">
         <v>357</v>
       </c>
-      <c r="X1" s="24" t="s">
+      <c r="Z1" s="24" t="s">
         <v>358</v>
       </c>
-      <c r="Y1" s="24" t="s">
+      <c r="AA1" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="Z1" s="24" t="s">
+      <c r="AB1" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="AA1" s="24" t="s">
+      <c r="AC1" s="24" t="s">
         <v>361</v>
       </c>
-      <c r="AB1" s="24" t="s">
+      <c r="AD1" s="24" t="s">
         <v>362</v>
       </c>
-      <c r="AC1" s="24" t="s">
+      <c r="AE1" s="24" t="s">
         <v>363</v>
       </c>
-      <c r="AD1" s="24" t="s">
+      <c r="AF1" s="24" t="s">
         <v>364</v>
       </c>
-      <c r="AE1" s="24" t="s">
+      <c r="AG1" s="24" t="s">
         <v>365</v>
       </c>
-      <c r="AF1" s="24" t="s">
+      <c r="AH1" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="AG1" s="24" t="s">
+      <c r="AI1" s="24" t="s">
         <v>367</v>
       </c>
-      <c r="AH1" s="24" t="s">
+      <c r="AJ1" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="AI1" s="24" t="s">
+      <c r="AK1" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="AJ1" s="24" t="s">
+      <c r="AL1" s="24" t="s">
         <v>370</v>
       </c>
-      <c r="AK1" s="24" t="s">
+      <c r="AM1" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="AL1" s="24" t="s">
+      <c r="AN1" s="24" t="s">
         <v>372</v>
       </c>
-      <c r="AM1" s="24" t="s">
+      <c r="AO1" s="24" t="s">
         <v>373</v>
       </c>
-      <c r="AN1" s="24" t="s">
+      <c r="AP1" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="AO1" s="24" t="s">
+      <c r="AQ1" s="24" t="s">
         <v>375</v>
       </c>
-      <c r="AP1" s="24" t="s">
+      <c r="AR1" s="24" t="s">
         <v>376</v>
       </c>
-      <c r="AQ1" s="24" t="s">
+      <c r="AS1" s="24" t="s">
         <v>377</v>
       </c>
-      <c r="AR1" s="24" t="s">
+      <c r="AT1" s="24" t="s">
         <v>378</v>
       </c>
-      <c r="AS1" s="24" t="s">
+      <c r="AU1" s="24" t="s">
         <v>379</v>
       </c>
-      <c r="AT1" s="24" t="s">
+      <c r="AV1" s="24" t="s">
         <v>380</v>
       </c>
-      <c r="AU1" s="24" t="s">
+      <c r="AW1" s="24" t="s">
         <v>381</v>
       </c>
-      <c r="AV1" s="24" t="s">
+      <c r="AX1" s="24" t="s">
         <v>382</v>
       </c>
-      <c r="AW1" s="24" t="s">
+      <c r="AY1" s="24" t="s">
         <v>383</v>
       </c>
-      <c r="AX1" s="24" t="s">
+      <c r="AZ1" s="24" t="s">
         <v>384</v>
       </c>
-      <c r="AY1" s="24" t="s">
+      <c r="BA1" s="24" t="s">
         <v>385</v>
       </c>
-      <c r="AZ1" s="24" t="s">
+      <c r="BB1" s="24" t="s">
         <v>386</v>
       </c>
-      <c r="BA1" s="24" t="s">
+      <c r="BC1" s="24" t="s">
         <v>387</v>
       </c>
-      <c r="BB1" s="24" t="s">
+      <c r="BD1" s="24" t="s">
         <v>388</v>
       </c>
-      <c r="BC1" s="24" t="s">
+      <c r="BE1" s="24" t="s">
         <v>389</v>
       </c>
-      <c r="BD1" s="24" t="s">
+      <c r="BF1" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="BE1" s="24" t="s">
+      <c r="BG1" s="24" t="s">
         <v>391</v>
       </c>
-      <c r="BF1" s="24" t="s">
+      <c r="BH1" s="24" t="s">
         <v>392</v>
       </c>
-      <c r="BG1" s="24" t="s">
+      <c r="BI1" s="24" t="s">
         <v>393</v>
       </c>
-      <c r="BH1" s="24" t="s">
+      <c r="BJ1" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="BK1" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="BI1" s="24" t="s">
+      <c r="BL1" s="24" t="s">
         <v>395</v>
       </c>
-      <c r="BJ1" s="24" t="s">
+      <c r="BM1" s="24" t="s">
         <v>396</v>
       </c>
-      <c r="BK1" s="24" t="s">
+      <c r="BN1" s="24" t="s">
         <v>397</v>
       </c>
-      <c r="BL1" s="24" t="s">
+      <c r="BO1" s="24" t="s">
         <v>398</v>
       </c>
-      <c r="BM1" s="24" t="s">
+      <c r="BP1" s="24" t="s">
         <v>399</v>
       </c>
-      <c r="BN1" s="24" t="s">
+      <c r="BQ1" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="BO1" s="24" t="s">
+      <c r="BR1" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="BS1" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="BT1" s="24" t="s">
         <v>401</v>
       </c>
-      <c r="BP1" s="24" t="s">
+      <c r="BU1" s="24" t="s">
         <v>402</v>
       </c>
-      <c r="BQ1" s="24" t="s">
+      <c r="BV1" s="24" t="s">
         <v>403</v>
       </c>
-      <c r="BR1" s="24" t="s">
+      <c r="BW1" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="BX1" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="BY1" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="BZ1" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="CA1" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="CB1" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="CC1" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="CD1" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="CE1" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="CF1" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="CG1" s="24" t="s">
         <v>388</v>
       </c>
-      <c r="BS1" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="BT1" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="BU1" s="24" t="s">
-        <v>405</v>
-      </c>
-      <c r="BV1" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="BW1" s="24" t="s">
-        <v>407</v>
-      </c>
-      <c r="BX1" s="24" t="s">
+      <c r="CH1" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="CI1" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="CJ1" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="CK1" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="CL1" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="CM1" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="CN1" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="CO1" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="CP1" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="BY1" s="24" t="s">
-        <v>409</v>
-      </c>
-      <c r="BZ1" s="24" t="s">
-        <v>410</v>
-      </c>
-      <c r="CA1" s="24" t="s">
-        <v>411</v>
-      </c>
-      <c r="CB1" s="24" t="s">
-        <v>412</v>
-      </c>
-      <c r="CC1" s="24" t="s">
-        <v>413</v>
-      </c>
-      <c r="CD1" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="CE1" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="CF1" s="24" t="s">
+      <c r="CQ1" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="CR1" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="CS1" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="CT1" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="CU1" s="24" t="s">
+        <v>424</v>
+      </c>
+      <c r="CV1" s="24" t="s">
         <v>388</v>
       </c>
-      <c r="CG1" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="CH1" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="CI1" s="24" t="s">
-        <v>416</v>
-      </c>
-      <c r="CJ1" s="24" t="s">
-        <v>417</v>
-      </c>
-      <c r="CK1" s="24" t="s">
-        <v>418</v>
-      </c>
-      <c r="CL1" s="24" t="s">
-        <v>419</v>
-      </c>
-      <c r="CM1" s="24" t="s">
-        <v>420</v>
-      </c>
-      <c r="CN1" s="24" t="s">
-        <v>421</v>
-      </c>
-      <c r="CO1" s="24" t="s">
-        <v>422</v>
-      </c>
-      <c r="CP1" s="24" t="s">
-        <v>411</v>
-      </c>
-      <c r="CQ1" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="CR1" s="24" t="s">
-        <v>424</v>
-      </c>
-      <c r="CS1" s="24" t="s">
+      <c r="CW1" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="CX1" s="24" t="s">
         <v>425</v>
       </c>
-      <c r="CT1" s="24" t="s">
+      <c r="CY1" s="24" t="s">
         <v>426</v>
       </c>
-      <c r="CU1" s="24" t="s">
+      <c r="CZ1" s="24" t="s">
         <v>427</v>
       </c>
-      <c r="CV1" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="CW1" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="CX1" s="24" t="s">
+      <c r="DA1" s="24" t="s">
         <v>428</v>
       </c>
-      <c r="CY1" s="24" t="s">
+      <c r="DB1" s="24" t="s">
         <v>429</v>
       </c>
-      <c r="CZ1" s="24" t="s">
+      <c r="DC1" s="24" t="s">
         <v>430</v>
       </c>
-      <c r="DA1" s="24" t="s">
+      <c r="DD1" s="24" t="s">
         <v>431</v>
       </c>
-      <c r="DB1" s="24" t="s">
-        <v>432</v>
-      </c>
-      <c r="DC1" s="24" t="s">
-        <v>433</v>
-      </c>
-      <c r="DD1" s="24" t="s">
-        <v>434</v>
-      </c>
     </row>
-    <row r="2" spans="1:113" s="21" customFormat="1" ht="68" customHeight="1">
+    <row r="2" spans="1:113" s="21" customFormat="1" ht="68" hidden="1" customHeight="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -2759,7 +2796,7 @@
         <v>28</v>
       </c>
       <c r="DB2" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC2" s="3" t="s">
         <v>45</v>
@@ -2773,7 +2810,7 @@
       <c r="DH2" s="33"/>
       <c r="DI2" s="22"/>
     </row>
-    <row r="3" spans="1:113" ht="60" customHeight="1">
+    <row r="3" spans="1:113" ht="60" hidden="1" customHeight="1">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -2932,7 +2969,7 @@
         <v>44</v>
       </c>
       <c r="DB3" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC3" s="3" t="s">
         <v>45</v>
@@ -2941,7 +2978,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:113" ht="45" customHeight="1">
+    <row r="4" spans="1:113" ht="45" hidden="1" customHeight="1">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -3120,7 +3157,7 @@
         <v>65</v>
       </c>
       <c r="DB4" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC4" s="3" t="s">
         <v>45</v>
@@ -3169,8 +3206,8 @@
       <c r="M5" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="16" t="s">
-        <v>18</v>
+      <c r="N5" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="O5" s="16" t="s">
         <v>19</v>
@@ -3304,7 +3341,7 @@
         <v>41</v>
       </c>
       <c r="DB5" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC5" s="16" t="s">
         <v>9</v>
@@ -3313,7 +3350,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:113" ht="90" customHeight="1">
+    <row r="6" spans="1:113" ht="90" hidden="1" customHeight="1">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -3474,16 +3511,16 @@
         <v>62</v>
       </c>
       <c r="DB6" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC6" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD6" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:113" ht="60" customHeight="1">
+    <row r="7" spans="1:113" ht="60" hidden="1" customHeight="1">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -3651,7 +3688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:113" ht="90" customHeight="1">
+    <row r="8" spans="1:113" ht="90" hidden="1" customHeight="1">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -3692,7 +3729,7 @@
         <v>95</v>
       </c>
       <c r="N8" s="16" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="O8" s="16" t="s">
         <v>19</v>
@@ -3814,16 +3851,16 @@
         <v>41</v>
       </c>
       <c r="DB8" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC8" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD8" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="9" spans="1:113" ht="30" customHeight="1">
+    <row r="9" spans="1:113" ht="30" hidden="1" customHeight="1">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -4006,16 +4043,16 @@
         <v>106</v>
       </c>
       <c r="DB9" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC9" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD9" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="10" spans="1:113" ht="60" customHeight="1">
+    <row r="10" spans="1:113" ht="60" hidden="1" customHeight="1">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -4183,7 +4220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:113" ht="45" customHeight="1">
+    <row r="11" spans="1:113" ht="45" hidden="1" customHeight="1">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -4384,16 +4421,16 @@
         <v>122</v>
       </c>
       <c r="DB11" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC11" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD11" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="12" spans="1:113" ht="45" customHeight="1">
+    <row r="12" spans="1:113" ht="45" hidden="1" customHeight="1">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -4559,7 +4596,7 @@
       <c r="DC12" s="16"/>
       <c r="DD12" s="16"/>
     </row>
-    <row r="13" spans="1:113" ht="60" customHeight="1">
+    <row r="13" spans="1:113" ht="60" hidden="1" customHeight="1">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -4716,13 +4753,13 @@
         <v>118</v>
       </c>
       <c r="DB13" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC13" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD13" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:113" ht="45" customHeight="1">
@@ -4765,8 +4802,8 @@
       <c r="M14" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="N14" s="16" t="s">
-        <v>18</v>
+      <c r="N14" s="3" t="s">
+        <v>479</v>
       </c>
       <c r="O14" s="16" t="s">
         <v>61</v>
@@ -4910,7 +4947,7 @@
         <v>73</v>
       </c>
       <c r="DB14" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC14" s="16" t="s">
         <v>45</v>
@@ -4919,7 +4956,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:113" ht="90" customHeight="1">
+    <row r="15" spans="1:113" ht="90" hidden="1" customHeight="1">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -5080,13 +5117,13 @@
         <v>62</v>
       </c>
       <c r="DB15" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC15" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD15" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="16" spans="1:113" ht="90" customHeight="1">
@@ -5266,7 +5303,7 @@
         <v>41</v>
       </c>
       <c r="DB16" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC16" s="3" t="s">
         <v>9</v>
@@ -5275,7 +5312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:108" ht="45" customHeight="1">
+    <row r="17" spans="1:108" ht="45" hidden="1" customHeight="1">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -5432,16 +5469,16 @@
         <v>41</v>
       </c>
       <c r="DB17" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC17" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD17" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="18" spans="1:108" ht="45" customHeight="1">
+    <row r="18" spans="1:108" ht="45" hidden="1" customHeight="1">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -5627,7 +5664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:108" ht="45" customHeight="1">
+    <row r="19" spans="1:108" ht="45" hidden="1" customHeight="1">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -5800,13 +5837,13 @@
         <v>62</v>
       </c>
       <c r="DB19" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC19" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD19" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:108" ht="45" customHeight="1">
@@ -6018,16 +6055,16 @@
         <v>73</v>
       </c>
       <c r="DB20" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC20" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD20" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="21" spans="1:108" ht="120" customHeight="1">
+    <row r="21" spans="1:108" ht="120" hidden="1" customHeight="1">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -6198,16 +6235,16 @@
         <v>182</v>
       </c>
       <c r="DB21" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC21" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD21" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="22" spans="1:108" ht="60" customHeight="1">
+    <row r="22" spans="1:108" ht="60" hidden="1" customHeight="1">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -6365,7 +6402,7 @@
       <c r="DC22" s="16"/>
       <c r="DD22" s="16"/>
     </row>
-    <row r="23" spans="1:108" ht="90" customHeight="1">
+    <row r="23" spans="1:108" ht="90" hidden="1" customHeight="1">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -6516,14 +6553,14 @@
         <v>182</v>
       </c>
       <c r="DB23" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC23" s="3"/>
       <c r="DD23" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:108" ht="300" customHeight="1">
+    <row r="24" spans="1:108" ht="300" hidden="1" customHeight="1">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -6704,7 +6741,7 @@
         <v>190</v>
       </c>
       <c r="DB24" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC24" s="3" t="s">
         <v>45</v>
@@ -6713,7 +6750,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:108" ht="60" customHeight="1">
+    <row r="25" spans="1:108" ht="60" hidden="1" customHeight="1">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -6892,16 +6929,16 @@
         <v>195</v>
       </c>
       <c r="DB25" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC25" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD25" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="26" spans="1:108" ht="180" customHeight="1">
+    <row r="26" spans="1:108" ht="180" hidden="1" customHeight="1">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -7054,16 +7091,16 @@
         <v>197</v>
       </c>
       <c r="DB26" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC26" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD26" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="27" spans="1:108" ht="60" customHeight="1">
+    <row r="27" spans="1:108" ht="60" hidden="1" customHeight="1">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -7220,16 +7257,16 @@
         <v>199</v>
       </c>
       <c r="DB27" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC27" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD27" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="28" spans="1:108" ht="60" customHeight="1">
+    <row r="28" spans="1:108" ht="60" hidden="1" customHeight="1">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -7392,7 +7429,7 @@
         <v>41</v>
       </c>
       <c r="DB28" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC28" s="3" t="s">
         <v>45</v>
@@ -7401,7 +7438,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:108" ht="60" customHeight="1">
+    <row r="29" spans="1:108" ht="60" hidden="1" customHeight="1">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -7601,7 +7638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:108" ht="90" customHeight="1">
+    <row r="30" spans="1:108" ht="90" hidden="1" customHeight="1">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -7772,16 +7809,16 @@
         <v>41</v>
       </c>
       <c r="DB30" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC30" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD30" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="31" spans="1:108" ht="90" customHeight="1">
+    <row r="31" spans="1:108" ht="90" hidden="1" customHeight="1">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -7952,7 +7989,7 @@
         <v>199</v>
       </c>
       <c r="DB31" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC31" s="16" t="s">
         <v>9</v>
@@ -8144,16 +8181,16 @@
         <v>219</v>
       </c>
       <c r="DB32" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC32" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD32" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="33" spans="1:108" ht="60" customHeight="1">
+    <row r="33" spans="1:108" ht="60" hidden="1" customHeight="1">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -8322,7 +8359,7 @@
         <v>132</v>
       </c>
       <c r="DB33" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC33" s="16" t="s">
         <v>45</v>
@@ -8331,7 +8368,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:108" ht="60" customHeight="1">
+    <row r="34" spans="1:108" ht="60" hidden="1" customHeight="1">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -8372,7 +8409,7 @@
         <v>40</v>
       </c>
       <c r="N34" s="16" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="O34" s="3" t="s">
         <v>166</v>
@@ -8496,7 +8533,7 @@
         <v>62</v>
       </c>
       <c r="DB34" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC34" s="3" t="s">
         <v>45</v>
@@ -8505,7 +8542,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:108" ht="90" customHeight="1">
+    <row r="35" spans="1:108" ht="90" hidden="1" customHeight="1">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -8672,16 +8709,16 @@
         <v>118</v>
       </c>
       <c r="DB35" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC35" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD35" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="36" spans="1:108" ht="90" customHeight="1">
+    <row r="36" spans="1:108" ht="90" hidden="1" customHeight="1">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -8844,16 +8881,16 @@
         <v>236</v>
       </c>
       <c r="DB36" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC36" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD36" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="37" spans="1:108" ht="75" customHeight="1">
+    <row r="37" spans="1:108" ht="75" hidden="1" customHeight="1">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -9016,16 +9053,16 @@
         <v>219</v>
       </c>
       <c r="DB37" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC37" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD37" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="38" spans="1:108" ht="75" customHeight="1">
+    <row r="38" spans="1:108" ht="75" hidden="1" customHeight="1">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -9214,7 +9251,7 @@
         <v>242</v>
       </c>
       <c r="DB38" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC38" s="3" t="s">
         <v>9</v>
@@ -9223,7 +9260,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:108" ht="75" customHeight="1">
+    <row r="39" spans="1:108" ht="75" hidden="1" customHeight="1">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -9375,7 +9412,7 @@
       <c r="DC39" s="16"/>
       <c r="DD39" s="16"/>
     </row>
-    <row r="40" spans="1:108" ht="75" customHeight="1">
+    <row r="40" spans="1:108" ht="75" hidden="1" customHeight="1">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -9536,16 +9573,16 @@
         <v>41</v>
       </c>
       <c r="DB40" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC40" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD40" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="41" spans="1:108" ht="75" customHeight="1">
+    <row r="41" spans="1:108" ht="75" hidden="1" customHeight="1">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -9700,16 +9737,16 @@
         <v>28</v>
       </c>
       <c r="DB41" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC41" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD41" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="42" spans="1:108" ht="60" customHeight="1">
+    <row r="42" spans="1:108" ht="60" hidden="1" customHeight="1">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -9860,16 +9897,16 @@
         <v>41</v>
       </c>
       <c r="DB42" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC42" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD42" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="43" spans="1:108" ht="45" customHeight="1">
+    <row r="43" spans="1:108" ht="45" hidden="1" customHeight="1">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -9910,7 +9947,7 @@
         <v>111</v>
       </c>
       <c r="N43" s="16" t="s">
-        <v>18</v>
+        <v>476</v>
       </c>
       <c r="O43" s="16" t="s">
         <v>131</v>
@@ -10038,16 +10075,16 @@
         <v>73</v>
       </c>
       <c r="DB43" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC43" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD43" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="44" spans="1:108" ht="90" customHeight="1">
+    <row r="44" spans="1:108" ht="90" hidden="1" customHeight="1">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -10088,7 +10125,7 @@
         <v>40</v>
       </c>
       <c r="N44" s="16" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="O44" s="16" t="s">
         <v>19</v>
@@ -10214,16 +10251,16 @@
         <v>253</v>
       </c>
       <c r="DB44" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC44" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD44" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="45" spans="1:108" ht="90" customHeight="1">
+    <row r="45" spans="1:108" ht="90" hidden="1" customHeight="1">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -10400,16 +10437,16 @@
       <c r="CZ45" s="16"/>
       <c r="DA45" s="16"/>
       <c r="DB45" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC45" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD45" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="46" spans="1:108" ht="75" customHeight="1">
+    <row r="46" spans="1:108" ht="75" hidden="1" customHeight="1">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -10572,7 +10609,7 @@
         <v>41</v>
       </c>
       <c r="DB46" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC46" s="16" t="s">
         <v>45</v>
@@ -10581,7 +10618,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:108" ht="75" customHeight="1">
+    <row r="47" spans="1:108" ht="75" hidden="1" customHeight="1">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -10622,7 +10659,7 @@
         <v>68</v>
       </c>
       <c r="N47" s="16" t="s">
-        <v>58</v>
+        <v>478</v>
       </c>
       <c r="O47" s="16" t="s">
         <v>19</v>
@@ -10746,7 +10783,7 @@
         <v>259</v>
       </c>
       <c r="DB47" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC47" s="3" t="s">
         <v>45</v>
@@ -10755,7 +10792,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:108" s="2" customFormat="1" ht="60" customHeight="1">
+    <row r="48" spans="1:108" s="2" customFormat="1" ht="60" hidden="1" customHeight="1">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -10925,7 +10962,7 @@
       <c r="DC48" s="16"/>
       <c r="DD48" s="16"/>
     </row>
-    <row r="49" spans="1:108" s="2" customFormat="1" ht="60" customHeight="1">
+    <row r="49" spans="1:108" s="2" customFormat="1" ht="60" hidden="1" customHeight="1">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -11088,16 +11125,16 @@
         <v>73</v>
       </c>
       <c r="DB49" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC49" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD49" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="50" spans="1:108" s="2" customFormat="1" ht="75" customHeight="1">
+    <row r="50" spans="1:108" s="2" customFormat="1" ht="75" hidden="1" customHeight="1">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -11138,7 +11175,7 @@
         <v>68</v>
       </c>
       <c r="N50" s="16" t="s">
-        <v>18</v>
+        <v>476</v>
       </c>
       <c r="O50" s="16" t="s">
         <v>19</v>
@@ -11278,16 +11315,16 @@
         <v>271</v>
       </c>
       <c r="DB50" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC50" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD50" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="51" spans="1:108" s="2" customFormat="1" ht="60" customHeight="1">
+    <row r="51" spans="1:108" s="2" customFormat="1" ht="60" hidden="1" customHeight="1">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -11328,7 +11365,7 @@
         <v>111</v>
       </c>
       <c r="N51" s="16" t="s">
-        <v>18</v>
+        <v>476</v>
       </c>
       <c r="O51" s="16" t="s">
         <v>131</v>
@@ -11454,16 +11491,16 @@
         <v>73</v>
       </c>
       <c r="DB51" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC51" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD51" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="52" spans="1:108" s="2" customFormat="1" ht="60" customHeight="1">
+    <row r="52" spans="1:108" s="2" customFormat="1" ht="60" hidden="1" customHeight="1">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -11504,7 +11541,7 @@
         <v>68</v>
       </c>
       <c r="N52" s="16" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>59</v>
@@ -11633,7 +11670,7 @@
       <c r="DC52" s="3"/>
       <c r="DD52" s="3"/>
     </row>
-    <row r="53" spans="1:108" s="2" customFormat="1" ht="60" customHeight="1">
+    <row r="53" spans="1:108" s="2" customFormat="1" ht="60" hidden="1" customHeight="1">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -11792,16 +11829,16 @@
         <v>182</v>
       </c>
       <c r="DB53" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC53" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD53" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="54" spans="1:108" s="2" customFormat="1" ht="90" customHeight="1">
+    <row r="54" spans="1:108" s="2" customFormat="1" ht="90" hidden="1" customHeight="1">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -11842,7 +11879,7 @@
         <v>111</v>
       </c>
       <c r="N54" s="3" t="s">
-        <v>187</v>
+        <v>477</v>
       </c>
       <c r="O54" s="16" t="s">
         <v>131</v>
@@ -11968,16 +12005,16 @@
         <v>62</v>
       </c>
       <c r="DB54" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC54" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD54" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="55" spans="1:108" s="2" customFormat="1" ht="60" customHeight="1">
+    <row r="55" spans="1:108" s="2" customFormat="1" ht="60" hidden="1" customHeight="1">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -12152,16 +12189,16 @@
         <v>182</v>
       </c>
       <c r="DB55" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC55" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD55" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="56" spans="1:108" s="2" customFormat="1" ht="60" customHeight="1">
+    <row r="56" spans="1:108" s="2" customFormat="1" ht="60" hidden="1" customHeight="1">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -12320,16 +12357,16 @@
         <v>81</v>
       </c>
       <c r="DB56" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC56" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD56" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="57" spans="1:108" s="2" customFormat="1" ht="60" customHeight="1">
+    <row r="57" spans="1:108" s="2" customFormat="1" ht="60" hidden="1" customHeight="1">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -12488,16 +12525,16 @@
         <v>190</v>
       </c>
       <c r="DB57" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC57" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD57" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="58" spans="1:108" s="2" customFormat="1" ht="90" customHeight="1">
+    <row r="58" spans="1:108" s="2" customFormat="1" ht="90" hidden="1" customHeight="1">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -12538,7 +12575,7 @@
         <v>68</v>
       </c>
       <c r="N58" s="16" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="O58" s="16" t="s">
         <v>19</v>
@@ -12668,7 +12705,7 @@
         <v>62</v>
       </c>
       <c r="DB58" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC58" s="16" t="s">
         <v>45</v>
@@ -12677,7 +12714,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:108" s="2" customFormat="1" ht="90" customHeight="1">
+    <row r="59" spans="1:108" s="2" customFormat="1" ht="90" hidden="1" customHeight="1">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -12717,8 +12754,8 @@
       <c r="M59" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="N59" s="16" t="s">
-        <v>18</v>
+      <c r="N59" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="O59" s="16" t="s">
         <v>131</v>
@@ -12838,7 +12875,7 @@
         <v>62</v>
       </c>
       <c r="DB59" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC59" s="3" t="s">
         <v>45</v>
@@ -12847,7 +12884,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:108" ht="60" customHeight="1">
+    <row r="60" spans="1:108" ht="60" hidden="1" customHeight="1">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -13008,13 +13045,13 @@
         <v>62</v>
       </c>
       <c r="DB60" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC60" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD60" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="61" spans="1:108" ht="60" customHeight="1">
@@ -13188,7 +13225,7 @@
         <v>118</v>
       </c>
       <c r="DB61" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC61" s="3" t="s">
         <v>45</v>
@@ -13197,7 +13234,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:108" ht="75" customHeight="1">
+    <row r="62" spans="1:108" ht="75" hidden="1" customHeight="1">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -13359,7 +13396,7 @@
       <c r="DC62" s="16"/>
       <c r="DD62" s="16"/>
     </row>
-    <row r="63" spans="1:108" ht="60" customHeight="1">
+    <row r="63" spans="1:108" ht="60" hidden="1" customHeight="1">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -13518,16 +13555,16 @@
         <v>73</v>
       </c>
       <c r="DB63" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC63" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD63" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="64" spans="1:108" ht="90" customHeight="1">
+    <row r="64" spans="1:108" ht="90" hidden="1" customHeight="1">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -13904,7 +13941,7 @@
         <v>62</v>
       </c>
       <c r="DB65" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC65" s="16" t="s">
         <v>45</v>
@@ -13913,7 +13950,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:108" ht="90" customHeight="1">
+    <row r="66" spans="1:108" ht="90" hidden="1" customHeight="1">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -13954,7 +13991,7 @@
         <v>68</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>187</v>
+        <v>473</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>59</v>
@@ -14086,16 +14123,16 @@
         <v>190</v>
       </c>
       <c r="DB66" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC66" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD66" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="67" spans="1:108" ht="90" customHeight="1">
+    <row r="67" spans="1:108" ht="90" hidden="1" customHeight="1">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -14278,13 +14315,13 @@
         <v>303</v>
       </c>
       <c r="DB67" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC67" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD67" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="68" spans="1:108" ht="60" customHeight="1">
@@ -14456,7 +14493,7 @@
         <v>307</v>
       </c>
       <c r="DB68" s="31" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="DC68" s="3" t="s">
         <v>45</v>
@@ -14465,7 +14502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:108" ht="60" customHeight="1">
+    <row r="69" spans="1:108" ht="60" hidden="1" customHeight="1">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -14620,16 +14657,16 @@
         <v>81</v>
       </c>
       <c r="DB69" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC69" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD69" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="70" spans="1:108" ht="60" customHeight="1">
+    <row r="70" spans="1:108" ht="60" hidden="1" customHeight="1">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -14796,16 +14833,16 @@
         <v>41</v>
       </c>
       <c r="DB70" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC70" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD70" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="71" spans="1:108" ht="60" customHeight="1">
+    <row r="71" spans="1:108" ht="60" hidden="1" customHeight="1">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -14966,7 +15003,7 @@
         <v>41</v>
       </c>
       <c r="DB71" s="31" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="DC71" s="16" t="s">
         <v>45</v>
@@ -14975,7 +15012,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:108" ht="60" customHeight="1">
+    <row r="72" spans="1:108" ht="60" hidden="1" customHeight="1">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -15151,7 +15188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:108" ht="60" customHeight="1">
+    <row r="73" spans="1:108" ht="60" hidden="1" customHeight="1">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -15192,7 +15229,7 @@
         <v>17</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>176</v>
+        <v>475</v>
       </c>
       <c r="O73" s="3" t="s">
         <v>121</v>
@@ -15314,7 +15351,7 @@
         <v>307</v>
       </c>
       <c r="DB73" s="31" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="DC73" s="3" t="s">
         <v>9</v>
@@ -15323,7 +15360,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:108" ht="60" customHeight="1">
+    <row r="74" spans="1:108" ht="60" hidden="1" customHeight="1">
       <c r="A74" s="6">
         <v>73</v>
       </c>
@@ -15499,7 +15536,7 @@
       <c r="DC74" s="16"/>
       <c r="DD74" s="16"/>
     </row>
-    <row r="75" spans="1:108" ht="60" customHeight="1">
+    <row r="75" spans="1:108" ht="60" hidden="1" customHeight="1">
       <c r="A75" s="6">
         <v>74</v>
       </c>
@@ -15658,7 +15695,7 @@
         <v>324</v>
       </c>
       <c r="DB75" s="31" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="DC75" s="16" t="s">
         <v>45</v>
@@ -15707,8 +15744,8 @@
       <c r="M76" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="N76" s="16" t="s">
-        <v>18</v>
+      <c r="N76" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="O76" s="16" t="s">
         <v>61</v>
@@ -15876,7 +15913,7 @@
         <v>62</v>
       </c>
       <c r="DB76" s="31" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="DC76" s="16" t="s">
         <v>45</v>
@@ -15885,7 +15922,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:108" ht="90" customHeight="1">
+    <row r="77" spans="1:108" ht="90" hidden="1" customHeight="1">
       <c r="A77" s="6">
         <v>76</v>
       </c>
@@ -16044,16 +16081,16 @@
         <v>132</v>
       </c>
       <c r="DB77" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC77" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD77" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="78" spans="1:108" ht="90" customHeight="1">
+    <row r="78" spans="1:108" ht="90" hidden="1" customHeight="1">
       <c r="A78" s="6">
         <v>77</v>
       </c>
@@ -16200,22 +16237,22 @@
         <v>42</v>
       </c>
       <c r="CZ78" s="16" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="DA78" s="16" t="s">
         <v>65</v>
       </c>
       <c r="DB78" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC78" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD78" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="79" spans="1:108" ht="75" customHeight="1">
+    <row r="79" spans="1:108" ht="75" hidden="1" customHeight="1">
       <c r="A79" s="6">
         <v>78</v>
       </c>
@@ -16253,7 +16290,7 @@
         <v>248</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="N79" s="3" t="s">
         <v>187</v>
@@ -16265,7 +16302,7 @@
         <v>47</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="R79" s="3" t="s">
         <v>85</v>
@@ -16383,7 +16420,7 @@
         <v>64</v>
       </c>
       <c r="DA79" s="3" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="DB79" s="3"/>
       <c r="DC79" s="3" t="s">
@@ -16393,7 +16430,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:108" ht="75" customHeight="1">
+    <row r="80" spans="1:108" ht="75" hidden="1" customHeight="1">
       <c r="A80" s="6">
         <v>79</v>
       </c>
@@ -16431,13 +16468,13 @@
         <v>221</v>
       </c>
       <c r="Q80" s="16" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="R80" s="16" t="s">
         <v>36</v>
       </c>
       <c r="S80" s="16" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="T80" s="16" t="s">
         <v>101</v>
@@ -16449,10 +16486,10 @@
         <v>15</v>
       </c>
       <c r="W80" s="16" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="X80" s="16" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="Y80" s="16" t="s">
         <v>111</v>
@@ -16550,16 +16587,16 @@
       <c r="CV80" s="8"/>
       <c r="CW80" s="8"/>
       <c r="CX80" s="16" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="CY80" s="16" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="CZ80" s="16" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="DA80" s="16" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="DB80" s="16"/>
       <c r="DC80" s="16"/>
@@ -16609,7 +16646,7 @@
         <v>49</v>
       </c>
       <c r="S81" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="T81" s="3" t="s">
         <v>51</v>
@@ -16742,16 +16779,16 @@
         <v>236</v>
       </c>
       <c r="DB81" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC81" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD81" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="82" spans="1:108" ht="75" customHeight="1">
+    <row r="82" spans="1:108" ht="75" hidden="1" customHeight="1">
       <c r="A82" s="6">
         <v>81</v>
       </c>
@@ -16789,7 +16826,7 @@
         <v>10</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="R82" s="3" t="s">
         <v>85</v>
@@ -16853,7 +16890,7 @@
       <c r="BS82" s="4"/>
       <c r="BT82" s="4"/>
       <c r="BU82" s="3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="BV82" s="3" t="s">
         <v>116</v>
@@ -16906,7 +16943,7 @@
         <v>259</v>
       </c>
       <c r="DB82" s="31" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="DC82" s="3" t="s">
         <v>45</v>
@@ -16915,7 +16952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:108" ht="75" customHeight="1">
+    <row r="83" spans="1:108" ht="75" hidden="1" customHeight="1">
       <c r="A83" s="6">
         <v>82</v>
       </c>
@@ -16950,13 +16987,13 @@
         <v>45</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>58</v>
+      <c r="N83" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>166</v>
@@ -16965,7 +17002,7 @@
         <v>10</v>
       </c>
       <c r="Q83" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>85</v>
@@ -17082,16 +17119,16 @@
         <v>41</v>
       </c>
       <c r="DB83" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC83" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD83" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="84" spans="1:108" ht="90" customHeight="1">
+    <row r="84" spans="1:108" ht="90" hidden="1" customHeight="1">
       <c r="A84" s="6">
         <v>83</v>
       </c>
@@ -17114,7 +17151,7 @@
         <v>104</v>
       </c>
       <c r="H84" s="16" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="I84" s="16" t="s">
         <v>34</v>
@@ -17244,16 +17281,16 @@
         <v>184</v>
       </c>
       <c r="DB84" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC84" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD84" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="85" spans="1:108" ht="90" customHeight="1">
+    <row r="85" spans="1:108" ht="90" hidden="1" customHeight="1">
       <c r="A85" s="6">
         <v>84</v>
       </c>
@@ -17291,13 +17328,13 @@
         <v>10</v>
       </c>
       <c r="Q85" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="R85" s="3" t="s">
         <v>85</v>
       </c>
       <c r="S85" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="T85" s="3" t="s">
         <v>13</v>
@@ -17321,7 +17358,7 @@
         <v>206</v>
       </c>
       <c r="AE85" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="AF85" s="3" t="s">
         <v>105</v>
@@ -17420,7 +17457,7 @@
         <v>141</v>
       </c>
       <c r="DB85" s="31" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="DC85" s="3" t="s">
         <v>45</v>
@@ -17429,7 +17466,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="1:108" ht="60" customHeight="1">
+    <row r="86" spans="1:108" ht="60" hidden="1" customHeight="1">
       <c r="A86" s="6">
         <v>85</v>
       </c>
@@ -17591,7 +17628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:108" ht="60" customHeight="1">
+    <row r="87" spans="1:108" ht="60" hidden="1" customHeight="1">
       <c r="A87" s="6">
         <v>86</v>
       </c>
@@ -17748,13 +17785,13 @@
         <v>62</v>
       </c>
       <c r="DB87" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC87" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD87" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="88" spans="1:108" ht="60" customHeight="1">
@@ -17795,10 +17832,10 @@
         <v>110</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="N88" s="3" t="s">
-        <v>187</v>
+        <v>474</v>
       </c>
       <c r="O88" s="3" t="s">
         <v>80</v>
@@ -17852,7 +17889,7 @@
         <v>55</v>
       </c>
       <c r="AF88" s="16" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="AG88" s="10">
         <v>5</v>
@@ -17869,14 +17906,14 @@
       <c r="AQ88" s="4"/>
       <c r="AR88" s="4"/>
       <c r="AS88" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="AT88" s="4"/>
       <c r="AU88" s="3" t="s">
         <v>53</v>
       </c>
       <c r="AV88" s="16" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AW88" s="10">
         <v>6</v>
@@ -17906,7 +17943,7 @@
         <v>5</v>
       </c>
       <c r="BL88" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="BM88" s="4"/>
       <c r="BN88" s="16" t="s">
@@ -17964,16 +18001,16 @@
         <v>41</v>
       </c>
       <c r="DB88" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC88" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD88" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="89" spans="1:108" ht="60" customHeight="1">
+    <row r="89" spans="1:108" ht="60" hidden="1" customHeight="1">
       <c r="A89" s="6">
         <v>88</v>
       </c>
@@ -18011,13 +18048,13 @@
         <v>10</v>
       </c>
       <c r="Q89" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>85</v>
       </c>
       <c r="S89" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="T89" s="3" t="s">
         <v>38</v>
@@ -18130,16 +18167,16 @@
         <v>184</v>
       </c>
       <c r="DB89" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC89" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD89" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="90" spans="1:108" ht="90" customHeight="1">
+    <row r="90" spans="1:108" ht="90" hidden="1" customHeight="1">
       <c r="A90" s="6">
         <v>89</v>
       </c>
@@ -18177,7 +18214,7 @@
         <v>110</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="N90" s="3" t="s">
         <v>58</v>
@@ -18292,7 +18329,7 @@
       <c r="CV90" s="13"/>
       <c r="CW90" s="13"/>
       <c r="CX90" s="16" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="CY90" s="16" t="s">
         <v>26</v>
@@ -18304,16 +18341,16 @@
         <v>73</v>
       </c>
       <c r="DB90" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC90" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD90" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="91" spans="1:108" ht="90" customHeight="1">
+    <row r="91" spans="1:108" ht="90" hidden="1" customHeight="1">
       <c r="A91" s="6">
         <v>90</v>
       </c>
@@ -18477,7 +18514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:108" ht="75" customHeight="1">
+    <row r="92" spans="1:108" ht="75" hidden="1" customHeight="1">
       <c r="A92" s="6">
         <v>91</v>
       </c>
@@ -18632,22 +18669,22 @@
         <v>63</v>
       </c>
       <c r="CZ92" s="16" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="DA92" s="16" t="s">
         <v>271</v>
       </c>
       <c r="DB92" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC92" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD92" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="93" spans="1:108" ht="60" customHeight="1">
+    <row r="93" spans="1:108" ht="60" hidden="1" customHeight="1">
       <c r="A93" s="6">
         <v>92</v>
       </c>
@@ -18697,13 +18734,13 @@
         <v>10</v>
       </c>
       <c r="Q93" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="R93" s="3" t="s">
         <v>85</v>
       </c>
       <c r="S93" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="T93" s="16" t="s">
         <v>101</v>
@@ -18839,7 +18876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:108" ht="60">
+    <row r="94" spans="1:108" ht="60" hidden="1">
       <c r="A94" s="6">
         <v>93</v>
       </c>
@@ -18920,7 +18957,7 @@
         <v>55</v>
       </c>
       <c r="AF94" s="16" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="AG94" s="10">
         <v>5</v>
@@ -19016,7 +19053,7 @@
         <v>65</v>
       </c>
       <c r="DB94" s="31" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="DC94" s="3" t="s">
         <v>45</v>
@@ -19025,7 +19062,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="95" spans="1:108" ht="60">
+    <row r="95" spans="1:108" ht="60" hidden="1">
       <c r="A95" s="6">
         <v>94</v>
       </c>
@@ -19190,16 +19227,16 @@
         <v>73</v>
       </c>
       <c r="DB95" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC95" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD95" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="96" spans="1:108" ht="60">
+    <row r="96" spans="1:108" ht="60" hidden="1">
       <c r="A96" s="6">
         <v>95</v>
       </c>
@@ -19237,7 +19274,7 @@
         <v>10</v>
       </c>
       <c r="Q96" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="R96" s="3" t="s">
         <v>85</v>
@@ -19282,7 +19319,7 @@
         <v>18</v>
       </c>
       <c r="AF96" s="16" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="AG96" s="10">
         <v>5</v>
@@ -19377,7 +19414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:108" ht="60">
+    <row r="97" spans="1:108" ht="60" hidden="1">
       <c r="A97" s="6">
         <v>96</v>
       </c>
@@ -19415,7 +19452,7 @@
         <v>10</v>
       </c>
       <c r="Q97" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="R97" s="3" t="s">
         <v>49</v>
@@ -19530,13 +19567,13 @@
         <v>41</v>
       </c>
       <c r="DB97" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC97" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD97" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="98" spans="1:108" ht="90">
@@ -19577,7 +19614,7 @@
         <v>110</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="N98" s="16" t="s">
         <v>58</v>
@@ -19589,13 +19626,13 @@
         <v>10</v>
       </c>
       <c r="Q98" s="16" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="R98" s="3" t="s">
         <v>49</v>
       </c>
       <c r="S98" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="T98" s="3" t="s">
         <v>51</v>
@@ -19616,7 +19653,7 @@
         <v>40</v>
       </c>
       <c r="Z98" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="AA98" s="3" t="s">
         <v>88</v>
@@ -19737,19 +19774,19 @@
         <v>247</v>
       </c>
       <c r="DA98" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="DB98" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC98" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD98" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
-    <row r="99" spans="1:108" ht="90">
+    <row r="99" spans="1:108" ht="90" hidden="1">
       <c r="A99" s="6">
         <v>98</v>
       </c>
@@ -19823,7 +19860,7 @@
         <v>4</v>
       </c>
       <c r="AC99" s="16" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="AD99" s="3" t="s">
         <v>240</v>
@@ -19844,7 +19881,7 @@
         <v>120</v>
       </c>
       <c r="AJ99" s="14" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="AK99" s="14" t="s">
         <v>166</v>
@@ -19935,10 +19972,10 @@
         <v>218</v>
       </c>
       <c r="DA99" s="16" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="DB99" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC99" s="3" t="s">
         <v>45</v>
@@ -19947,7 +19984,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="100" spans="1:108" ht="90">
+    <row r="100" spans="1:108" ht="90" hidden="1">
       <c r="A100" s="6">
         <v>99</v>
       </c>
@@ -19985,7 +20022,7 @@
         <v>10</v>
       </c>
       <c r="Q100" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>49</v>
@@ -20108,13 +20145,13 @@
         <v>242</v>
       </c>
       <c r="DB100" s="31" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="DC100" s="3" t="s">
         <v>45</v>
       </c>
       <c r="DD100" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="101" spans="1:108" ht="90">
@@ -20125,7 +20162,7 @@
         <v>0</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>2</v>
@@ -20182,7 +20219,7 @@
         <v>116</v>
       </c>
       <c r="Z101" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="AA101" s="3" t="s">
         <v>88</v>
@@ -20227,7 +20264,7 @@
       <c r="AQ101" s="4"/>
       <c r="AR101" s="4"/>
       <c r="AS101" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="AT101" s="13"/>
       <c r="AU101" s="3" t="s">
@@ -20314,7 +20351,7 @@
         <v>182</v>
       </c>
       <c r="DB101" s="32" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="DC101" s="3" t="s">
         <v>9</v>
@@ -20323,11 +20360,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:108">
+    <row r="102" spans="1:108" hidden="1">
       <c r="A102" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:DD101" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="B1:BI102" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="43">
+      <customFilters>
+        <customFilter val="*LLM*"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="DB4" r:id="rId1" xr:uid="{1F48681A-42FB-984A-BE72-1EA02F27A4E6}"/>
